--- a/sociometry_result.xlsx
+++ b/sociometry_result.xlsx
@@ -446,19 +446,19 @@
           <t>Жилинская</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>+**</t>
         </is>
       </c>
     </row>
@@ -473,17 +473,17 @@
           <t>Ковальчук</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -500,17 +500,17 @@
           <t>Коморная</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>+**</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -527,17 +527,17 @@
           <t>Воробей</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+**</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -554,17 +554,17 @@
           <t>Ильющенко</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -581,19 +581,19 @@
           <t>Филюк</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>+**</t>
         </is>
       </c>
     </row>
@@ -608,17 +608,17 @@
           <t>Довбыш</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+**</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -635,17 +635,12 @@
           <t>Поличева</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -662,17 +657,17 @@
           <t>Саченко</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -689,19 +684,19 @@
           <t>Лобода</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+**</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>+**</t>
         </is>
       </c>
     </row>
@@ -716,19 +711,19 @@
           <t>Васюкова</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+**</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>+**</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>+**</t>
         </is>
       </c>
     </row>
@@ -743,17 +738,17 @@
           <t>Гаврикова</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+**</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -770,19 +765,19 @@
           <t>Сувига</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>+**</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>+**</t>
         </is>
       </c>
     </row>
@@ -797,17 +792,17 @@
           <t>Солоненко</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -824,19 +819,19 @@
           <t>Цинк</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>+**</t>
         </is>
       </c>
     </row>
@@ -851,12 +846,12 @@
           <t>Томашенко</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>+</t>
         </is>
